--- a/Datasets/Education (Bryan)/overview/UNDP_education_index.xlsx
+++ b/Datasets/Education (Bryan)/overview/UNDP_education_index.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\github stuff\BAVP\Datasets\Education (Bryan)\overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1679883-B8F8-4FAD-834F-E8501D6CEC91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F42537-0044-4671-AD72-1E5BEB40AAD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9818" yWindow="-15458" windowWidth="19395" windowHeight="14955"/>
+    <workbookView xWindow="9818" yWindow="-15458" windowWidth="19395" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education Index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Education Index</t>
   </si>
@@ -596,12 +604,15 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Education Rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1435,16 +1446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1454,8 +1465,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1465,8 +1479,11 @@
       <c r="C2">
         <v>0.94599999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1476,8 +1493,12 @@
       <c r="C3">
         <v>0.92300000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>14</v>
       </c>
@@ -1487,8 +1508,12 @@
       <c r="C4">
         <v>0.92300000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="0">D3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1498,8 +1523,12 @@
       <c r="C5">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1509,30 +1538,42 @@
       <c r="C6">
         <v>0.91900000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>0.91800000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>0.91800000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>15</v>
       </c>
@@ -1542,8 +1583,12 @@
       <c r="C9">
         <v>0.91600000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1553,8 +1598,12 @@
       <c r="C10">
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1564,8 +1613,12 @@
       <c r="C11">
         <v>0.91400000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1575,8 +1628,12 @@
       <c r="C12">
         <v>0.90600000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1586,8 +1643,12 @@
       <c r="C13">
         <v>0.89900000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1597,8 +1658,12 @@
       <c r="C14">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1608,8 +1673,12 @@
       <c r="C15">
         <v>0.89300000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1619,8 +1688,12 @@
       <c r="C16">
         <v>0.89300000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>26</v>
       </c>
@@ -1630,8 +1703,12 @@
       <c r="C17">
         <v>0.89200000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1641,8 +1718,12 @@
       <c r="C18">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1652,8 +1733,12 @@
       <c r="C19">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>30</v>
       </c>
@@ -1663,8 +1748,12 @@
       <c r="C20">
         <v>0.88100000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1674,8 +1763,12 @@
       <c r="C21">
         <v>0.876</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1685,8 +1778,12 @@
       <c r="C22">
         <v>0.871</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>39</v>
       </c>
@@ -1696,8 +1793,12 @@
       <c r="C23">
         <v>0.871</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>32</v>
       </c>
@@ -1707,8 +1808,12 @@
       <c r="C24">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1718,8 +1823,12 @@
       <c r="C25">
         <v>0.86199999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1729,8 +1838,12 @@
       <c r="C26">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>70</v>
       </c>
@@ -1740,8 +1853,12 @@
       <c r="C27">
         <v>0.85599999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>19</v>
       </c>
@@ -1751,8 +1868,12 @@
       <c r="C28">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>55</v>
       </c>
@@ -1762,8 +1883,12 @@
       <c r="C29">
         <v>0.84499999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>48</v>
       </c>
@@ -1773,30 +1898,42 @@
       <c r="C30">
         <v>0.84199999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="C31">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1806,8 +1943,12 @@
       <c r="C33">
         <v>0.83299999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>49</v>
       </c>
@@ -1817,8 +1958,12 @@
       <c r="C34">
         <v>0.83199999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>18</v>
       </c>
@@ -1828,30 +1973,42 @@
       <c r="C35">
         <v>0.82699999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C36">
         <v>0.82399999999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C37">
         <v>0.82399999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1861,8 +2018,12 @@
       <c r="C38">
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>50</v>
       </c>
@@ -1872,8 +2033,12 @@
       <c r="C39">
         <v>0.81699999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>43</v>
       </c>
@@ -1883,30 +2048,42 @@
       <c r="C40">
         <v>0.81599999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>0.81100000000000005</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>0.81100000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1916,8 +2093,12 @@
       <c r="C43">
         <v>0.80700000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>52</v>
       </c>
@@ -1927,8 +2108,12 @@
       <c r="C44">
         <v>0.80500000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>21</v>
       </c>
@@ -1938,8 +2123,12 @@
       <c r="C45">
         <v>0.80200000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>52</v>
       </c>
@@ -1949,8 +2138,12 @@
       <c r="C46">
         <v>0.79700000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>88</v>
       </c>
@@ -1960,8 +2153,12 @@
       <c r="C47">
         <v>0.79700000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1971,8 +2168,12 @@
       <c r="C48">
         <v>0.79600000000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>36</v>
       </c>
@@ -1982,8 +2183,12 @@
       <c r="C49">
         <v>0.79400000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>29</v>
       </c>
@@ -1993,8 +2198,12 @@
       <c r="C50">
         <v>0.79300000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>72</v>
       </c>
@@ -2004,8 +2213,12 @@
       <c r="C51">
         <v>0.79100000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>63</v>
       </c>
@@ -2015,8 +2228,12 @@
       <c r="C52">
         <v>0.78300000000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>56</v>
       </c>
@@ -2026,8 +2243,12 @@
       <c r="C53">
         <v>0.77300000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>105</v>
       </c>
@@ -2037,8 +2258,12 @@
       <c r="C54">
         <v>0.77100000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>98</v>
       </c>
@@ -2048,8 +2273,12 @@
       <c r="C55">
         <v>0.76400000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>52</v>
       </c>
@@ -2059,30 +2288,42 @@
       <c r="C56">
         <v>0.76200000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C57">
         <v>0.75900000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>0.75900000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>69</v>
       </c>
@@ -2092,8 +2333,12 @@
       <c r="C59">
         <v>0.75800000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>71</v>
       </c>
@@ -2103,8 +2348,12 @@
       <c r="C60">
         <v>0.75600000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>78</v>
       </c>
@@ -2114,8 +2363,12 @@
       <c r="C61">
         <v>0.755</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2125,8 +2378,12 @@
       <c r="C62">
         <v>0.752</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>57</v>
       </c>
@@ -2136,8 +2393,12 @@
       <c r="C63">
         <v>0.745</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>35</v>
       </c>
@@ -2147,8 +2408,12 @@
       <c r="C64">
         <v>0.74399999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2158,8 +2423,12 @@
       <c r="C65">
         <v>0.74299999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>60</v>
       </c>
@@ -2169,8 +2438,12 @@
       <c r="C66">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>45</v>
       </c>
@@ -2180,30 +2453,42 @@
       <c r="C67">
         <v>0.73799999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C68">
         <v>0.73399999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D68">
+        <f t="shared" ref="D68:D131" si="1">D67+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C69">
         <v>0.73399999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>47</v>
       </c>
@@ -2213,8 +2498,12 @@
       <c r="C70">
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>66</v>
       </c>
@@ -2224,8 +2513,12 @@
       <c r="C71">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>63</v>
       </c>
@@ -2235,8 +2528,12 @@
       <c r="C72">
         <v>0.72799999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>113</v>
       </c>
@@ -2246,8 +2543,12 @@
       <c r="C73">
         <v>0.72099999999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>108</v>
       </c>
@@ -2257,8 +2558,12 @@
       <c r="C74">
         <v>0.71799999999999997</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>68</v>
       </c>
@@ -2268,8 +2573,12 @@
       <c r="C75">
         <v>0.71599999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>85</v>
       </c>
@@ -2279,8 +2588,12 @@
       <c r="C76">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>61</v>
       </c>
@@ -2290,8 +2603,12 @@
       <c r="C77">
         <v>0.71299999999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>59</v>
       </c>
@@ -2301,8 +2618,12 @@
       <c r="C78">
         <v>0.71199999999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>36</v>
       </c>
@@ -2312,8 +2633,12 @@
       <c r="C79">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>107</v>
       </c>
@@ -2323,8 +2648,12 @@
       <c r="C80">
         <v>0.70799999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>117</v>
       </c>
@@ -2334,8 +2663,12 @@
       <c r="C81">
         <v>0.70699999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>75</v>
       </c>
@@ -2345,8 +2678,12 @@
       <c r="C82">
         <v>0.70599999999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>43</v>
       </c>
@@ -2356,8 +2693,12 @@
       <c r="C83">
         <v>0.70299999999999996</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>111</v>
       </c>
@@ -2367,8 +2708,12 @@
       <c r="C84">
         <v>0.70099999999999996</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>96</v>
       </c>
@@ -2378,30 +2723,42 @@
       <c r="C85">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C86">
         <v>0.69699999999999995</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C87">
         <v>0.69699999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2411,30 +2768,42 @@
       <c r="C88">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C89">
         <v>0.69199999999999995</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <v>0.69199999999999995</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>103</v>
       </c>
@@ -2444,8 +2813,12 @@
       <c r="C91">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>114</v>
       </c>
@@ -2455,8 +2828,12 @@
       <c r="C92">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>79</v>
       </c>
@@ -2466,8 +2843,12 @@
       <c r="C93">
         <v>0.68899999999999995</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>76</v>
       </c>
@@ -2477,8 +2858,12 @@
       <c r="C94">
         <v>0.68400000000000005</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>79</v>
       </c>
@@ -2488,8 +2873,12 @@
       <c r="C95">
         <v>0.68300000000000005</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>102</v>
       </c>
@@ -2499,8 +2888,12 @@
       <c r="C96">
         <v>0.67800000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>82</v>
       </c>
@@ -2510,8 +2903,12 @@
       <c r="C97">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>125</v>
       </c>
@@ -2521,8 +2918,12 @@
       <c r="C98">
         <v>0.67300000000000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>89</v>
       </c>
@@ -2532,8 +2933,12 @@
       <c r="C99">
         <v>0.66800000000000004</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>106</v>
       </c>
@@ -2543,8 +2948,12 @@
       <c r="C100">
         <v>0.66700000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>77</v>
       </c>
@@ -2554,8 +2963,12 @@
       <c r="C101">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>94</v>
       </c>
@@ -2565,8 +2978,12 @@
       <c r="C102">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>94</v>
       </c>
@@ -2576,8 +2993,12 @@
       <c r="C103">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>41</v>
       </c>
@@ -2587,8 +3008,12 @@
       <c r="C104">
         <v>0.66100000000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>73</v>
       </c>
@@ -2598,8 +3023,12 @@
       <c r="C105">
         <v>0.66100000000000003</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>98</v>
       </c>
@@ -2609,8 +3038,12 @@
       <c r="C106">
         <v>0.66100000000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>119</v>
       </c>
@@ -2620,8 +3053,12 @@
       <c r="C107">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>91</v>
       </c>
@@ -2631,8 +3068,12 @@
       <c r="C108">
         <v>0.65900000000000003</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>89</v>
       </c>
@@ -2642,8 +3083,12 @@
       <c r="C109">
         <v>0.65700000000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>74</v>
       </c>
@@ -2653,8 +3098,12 @@
       <c r="C110">
         <v>0.65500000000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>85</v>
       </c>
@@ -2664,8 +3113,12 @@
       <c r="C111">
         <v>0.64900000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>115</v>
       </c>
@@ -2675,8 +3128,12 @@
       <c r="C112">
         <v>0.63600000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>98</v>
       </c>
@@ -2686,8 +3143,12 @@
       <c r="C113">
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>108</v>
       </c>
@@ -2697,8 +3158,12 @@
       <c r="C114">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>118</v>
       </c>
@@ -2708,30 +3173,42 @@
       <c r="C115">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C116">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C117">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>98</v>
       </c>
@@ -2741,8 +3218,12 @@
       <c r="C118">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>116</v>
       </c>
@@ -2752,8 +3233,12 @@
       <c r="C119">
         <v>0.60799999999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>110</v>
       </c>
@@ -2763,8 +3248,12 @@
       <c r="C120">
         <v>0.60699999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>93</v>
       </c>
@@ -2774,8 +3263,12 @@
       <c r="C121">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>123</v>
       </c>
@@ -2785,8 +3278,12 @@
       <c r="C122">
         <v>0.60099999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>132</v>
       </c>
@@ -2796,8 +3293,12 @@
       <c r="C123">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>130</v>
       </c>
@@ -2807,8 +3308,12 @@
       <c r="C124">
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>135</v>
       </c>
@@ -2818,8 +3323,12 @@
       <c r="C125">
         <v>0.57799999999999996</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>143</v>
       </c>
@@ -2829,8 +3338,12 @@
       <c r="C126">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>150</v>
       </c>
@@ -2840,8 +3353,12 @@
       <c r="C127">
         <v>0.56799999999999995</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>137</v>
       </c>
@@ -2851,8 +3368,12 @@
       <c r="C128">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>124</v>
       </c>
@@ -2862,8 +3383,12 @@
       <c r="C129">
         <v>0.56599999999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>126</v>
       </c>
@@ -2873,30 +3398,42 @@
       <c r="C130">
         <v>0.56599999999999995</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B131" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="C131">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C132">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D132">
+        <f t="shared" ref="D132:D190" si="2">D131+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>142</v>
       </c>
@@ -2906,8 +3443,12 @@
       <c r="C133">
         <v>0.55900000000000005</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>129</v>
       </c>
@@ -2917,8 +3458,12 @@
       <c r="C134">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>120</v>
       </c>
@@ -2928,8 +3473,12 @@
       <c r="C135">
         <v>0.55400000000000005</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>121</v>
       </c>
@@ -2939,8 +3488,12 @@
       <c r="C136">
         <v>0.54700000000000004</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>141</v>
       </c>
@@ -2950,8 +3503,12 @@
       <c r="C137">
         <v>0.54500000000000004</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>138</v>
       </c>
@@ -2961,8 +3518,12 @@
       <c r="C138">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2972,8 +3533,12 @@
       <c r="C139">
         <v>0.53900000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>126</v>
       </c>
@@ -2983,8 +3548,12 @@
       <c r="C140">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>147</v>
       </c>
@@ -2994,8 +3563,12 @@
       <c r="C141">
         <v>0.52600000000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>159</v>
       </c>
@@ -3005,8 +3578,12 @@
       <c r="C142">
         <v>0.51500000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>167</v>
       </c>
@@ -3016,8 +3593,12 @@
       <c r="C143">
         <v>0.51400000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>135</v>
       </c>
@@ -3027,8 +3608,12 @@
       <c r="C144">
         <v>0.51300000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>126</v>
       </c>
@@ -3038,8 +3623,12 @@
       <c r="C145">
         <v>0.51100000000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>164</v>
       </c>
@@ -3049,8 +3638,12 @@
       <c r="C146">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>132</v>
       </c>
@@ -3060,8 +3653,12 @@
       <c r="C147">
         <v>0.503</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3071,8 +3668,12 @@
       <c r="C148">
         <v>0.501</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>149</v>
       </c>
@@ -3082,8 +3683,12 @@
       <c r="C149">
         <v>0.498</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>131</v>
       </c>
@@ -3093,8 +3698,12 @@
       <c r="C150">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>179</v>
       </c>
@@ -3104,8 +3713,12 @@
       <c r="C151">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>162</v>
       </c>
@@ -3115,8 +3728,12 @@
       <c r="C152">
         <v>0.49299999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>158</v>
       </c>
@@ -3126,8 +3743,12 @@
       <c r="C153">
         <v>0.48599999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>140</v>
       </c>
@@ -3137,41 +3758,57 @@
       <c r="C154">
         <v>0.48099999999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C155">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C156">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C157">
         <v>0.47599999999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>153</v>
       </c>
@@ -3181,8 +3818,12 @@
       <c r="C158">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>172</v>
       </c>
@@ -3192,8 +3833,12 @@
       <c r="C159">
         <v>0.45900000000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>157</v>
       </c>
@@ -3203,8 +3848,12 @@
       <c r="C160">
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>145</v>
       </c>
@@ -3214,8 +3863,12 @@
       <c r="C161">
         <v>0.45200000000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>169</v>
       </c>
@@ -3225,8 +3878,12 @@
       <c r="C162">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>134</v>
       </c>
@@ -3236,30 +3893,42 @@
       <c r="C163">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B164" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C164">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C165">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>155</v>
       </c>
@@ -3269,8 +3938,12 @@
       <c r="C166">
         <v>0.432</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>159</v>
       </c>
@@ -3280,8 +3953,12 @@
       <c r="C167">
         <v>0.42299999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>176</v>
       </c>
@@ -3291,8 +3968,12 @@
       <c r="C168">
         <v>0.42199999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>185</v>
       </c>
@@ -3302,8 +3983,12 @@
       <c r="C169">
         <v>0.41799999999999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>154</v>
       </c>
@@ -3313,8 +3998,12 @@
       <c r="C170">
         <v>0.41599999999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3324,8 +4013,12 @@
       <c r="C171">
         <v>0.41299999999999998</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>152</v>
       </c>
@@ -3335,8 +4028,12 @@
       <c r="C172">
         <v>0.40699999999999997</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>181</v>
       </c>
@@ -3346,8 +4043,12 @@
       <c r="C173">
         <v>0.40300000000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>178</v>
       </c>
@@ -3357,8 +4058,12 @@
       <c r="C174">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>161</v>
       </c>
@@ -3368,8 +4073,12 @@
       <c r="C175">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>180</v>
       </c>
@@ -3379,8 +4088,12 @@
       <c r="C176">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>174</v>
       </c>
@@ -3390,8 +4103,12 @@
       <c r="C177">
         <v>0.38600000000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>188</v>
       </c>
@@ -3401,8 +4118,12 @@
       <c r="C178">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>166</v>
       </c>
@@ -3412,8 +4133,12 @@
       <c r="C179">
         <v>0.35199999999999998</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>177</v>
       </c>
@@ -3423,8 +4148,12 @@
       <c r="C180">
         <v>0.34699999999999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>174</v>
       </c>
@@ -3434,8 +4163,12 @@
       <c r="C181">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>168</v>
       </c>
@@ -3445,8 +4178,12 @@
       <c r="C182">
         <v>0.33900000000000002</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>173</v>
       </c>
@@ -3456,8 +4193,12 @@
       <c r="C183">
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>171</v>
       </c>
@@ -3467,8 +4208,12 @@
       <c r="C184">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>186</v>
       </c>
@@ -3478,8 +4223,12 @@
       <c r="C185">
         <v>0.30099999999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>182</v>
       </c>
@@ -3489,8 +4238,12 @@
       <c r="C186">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>184</v>
       </c>
@@ -3500,8 +4253,12 @@
       <c r="C187">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3511,8 +4268,12 @@
       <c r="C188">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>182</v>
       </c>
@@ -3522,8 +4283,12 @@
       <c r="C189">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3533,10 +4298,14 @@
       <c r="C190">
         <v>0.247</v>
       </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C190">
-    <sortCondition descending="1" ref="C1"/>
+    <sortCondition descending="1" ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
